--- a/Result/ROR 2 - ORACLE -PASSENGER.xlsx
+++ b/Result/ROR 2 - ORACLE -PASSENGER.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="13980" windowHeight="5265" activeTab="9"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="13980" windowHeight="5265"/>
   </bookViews>
   <sheets>
     <sheet name="Resumen" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="47">
   <si>
     <t>Url</t>
   </si>
@@ -131,6 +131,39 @@
   </si>
   <si>
     <t>30.0 /sec</t>
+  </si>
+  <si>
+    <t>ip-0AD076EF</t>
+  </si>
+  <si>
+    <t>32.6/sec</t>
+  </si>
+  <si>
+    <t>27.5/sec</t>
+  </si>
+  <si>
+    <t>1676.78</t>
+  </si>
+  <si>
+    <t>5.0/sec</t>
+  </si>
+  <si>
+    <t>8.0/sec</t>
+  </si>
+  <si>
+    <t>10.0/sec</t>
+  </si>
+  <si>
+    <t>14.9/sec</t>
+  </si>
+  <si>
+    <t>19.6/sec</t>
+  </si>
+  <si>
+    <t>24.7/sec</t>
+  </si>
+  <si>
+    <t>28.9/sec</t>
   </si>
 </sst>
 </file>
@@ -626,7 +659,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>197.93199999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -653,7 +686,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>182.18199999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -680,7 +713,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>190.831666666666</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -707,7 +740,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>230.636</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -734,7 +767,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>303.19866666666599</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -761,7 +794,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>350.56166666666599</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -788,30 +821,30 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>536.04999999999995</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="64062592"/>
-        <c:axId val="64064128"/>
+        <c:axId val="60315136"/>
+        <c:axId val="60316672"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="64062592"/>
+        <c:axId val="60315136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="64064128"/>
+        <c:crossAx val="60316672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="64064128"/>
+        <c:axId val="60316672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -819,7 +852,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="64062592"/>
+        <c:crossAx val="60315136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -832,7 +865,137 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="es-AR"/>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Resumen!$C$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Avg gen time (ms)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Resumen!$H$7:$H$13</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>5.0/sec</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.0/sec</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.0/sec</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14.9/sec</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19.6/sec</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24.7/sec</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>28.9/sec</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Resumen!$C$7:$C$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>197.93199999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>182.18199999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>190.831666666666</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>230.636</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>303.19866666666599</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>350.56166666666599</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>536.04999999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="83695104"/>
+        <c:axId val="83696640"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="83695104"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="83696640"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="83696640"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="83695104"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -842,16 +1005,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -865,6 +1028,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1047750</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="3 Gráfico"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1160,8 +1353,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1228,31 +1421,31 @@
       </c>
       <c r="B5" s="26">
         <f>'Simple Concurrent'!B2</f>
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="C5" s="26">
         <f>'Simple Concurrent'!C2</f>
-        <v>0</v>
+        <v>585.94966666666596</v>
       </c>
       <c r="D5" s="26">
         <f>'Simple Concurrent'!D2</f>
-        <v>0</v>
+        <v>105.063275219692</v>
       </c>
       <c r="E5" s="26">
         <f>'Simple Concurrent'!E2</f>
-        <v>0</v>
+        <v>238</v>
       </c>
       <c r="F5" s="26">
         <f>'Simple Concurrent'!F2</f>
-        <v>0</v>
+        <v>3544</v>
       </c>
       <c r="G5" s="26">
         <f>'Simple Concurrent'!G2</f>
         <v>0</v>
       </c>
-      <c r="H5" s="26">
+      <c r="H5" s="26" t="str">
         <f>'Simple Concurrent'!H2</f>
-        <v>0</v>
+        <v>32.6/sec</v>
       </c>
       <c r="I5" s="27" t="s">
         <v>28</v>
@@ -1264,31 +1457,31 @@
       </c>
       <c r="B6" s="32">
         <f>'Gaussian Concurrent'!B2</f>
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="C6" s="32">
         <f>'Gaussian Concurrent'!C2</f>
-        <v>0</v>
+        <v>390.35433333333299</v>
       </c>
       <c r="D6" s="32">
         <f>'Gaussian Concurrent'!D2</f>
-        <v>0</v>
+        <v>75.715415303328697</v>
       </c>
       <c r="E6" s="32">
         <f>'Gaussian Concurrent'!E2</f>
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="F6" s="32">
         <f>'Gaussian Concurrent'!F2</f>
-        <v>0</v>
+        <v>804</v>
       </c>
       <c r="G6" s="32">
         <f>'Gaussian Concurrent'!G2</f>
         <v>0</v>
       </c>
-      <c r="H6" s="32">
+      <c r="H6" s="32" t="str">
         <f>'Gaussian Concurrent'!H2</f>
-        <v>0</v>
+        <v>27.5/sec</v>
       </c>
       <c r="I6" s="33" t="s">
         <v>28</v>
@@ -1300,31 +1493,31 @@
       </c>
       <c r="B7" s="10">
         <f>'Throughtput 5'!B2</f>
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="C7" s="10">
         <f>'Throughtput 5'!C2</f>
-        <v>0</v>
+        <v>197.93199999999999</v>
       </c>
       <c r="D7" s="10">
         <f>'Throughtput 5'!D2</f>
-        <v>0</v>
+        <v>63.5281987991685</v>
       </c>
       <c r="E7" s="10">
         <f>'Throughtput 5'!E2</f>
-        <v>0</v>
+        <v>121</v>
       </c>
       <c r="F7" s="10">
         <f>'Throughtput 5'!F2</f>
-        <v>0</v>
+        <v>737</v>
       </c>
       <c r="G7" s="10">
         <f>'Throughtput 5'!G2</f>
         <v>0</v>
       </c>
-      <c r="H7" s="10">
+      <c r="H7" s="10" t="str">
         <f>'Throughtput 5'!H2</f>
-        <v>0</v>
+        <v>5.0/sec</v>
       </c>
       <c r="I7" s="31" t="s">
         <v>29</v>
@@ -1336,31 +1529,31 @@
       </c>
       <c r="B8" s="14">
         <f>'Throughtput 8'!B2</f>
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="C8" s="14">
         <f>'Throughtput 8'!C2</f>
-        <v>0</v>
+        <v>182.18199999999999</v>
       </c>
       <c r="D8" s="14">
         <f>'Throughtput 8'!D2</f>
-        <v>0</v>
+        <v>43.5786057142722</v>
       </c>
       <c r="E8" s="14">
         <f>'Throughtput 8'!E2</f>
-        <v>0</v>
+        <v>117</v>
       </c>
       <c r="F8" s="14">
         <f>'Throughtput 8'!F2</f>
-        <v>0</v>
+        <v>532</v>
       </c>
       <c r="G8" s="14">
         <f>'Throughtput 8'!G2</f>
         <v>0</v>
       </c>
-      <c r="H8" s="14">
+      <c r="H8" s="14" t="str">
         <f>'Throughtput 8'!H2</f>
-        <v>0</v>
+        <v>8.0/sec</v>
       </c>
       <c r="I8" s="28" t="s">
         <v>30</v>
@@ -1372,31 +1565,31 @@
       </c>
       <c r="B9" s="11">
         <f>'Throughtput 10'!B2</f>
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="C9" s="11">
         <f>'Throughtput 10'!C2</f>
-        <v>0</v>
+        <v>190.831666666666</v>
       </c>
       <c r="D9" s="11">
         <f>'Throughtput 10'!D2</f>
-        <v>0</v>
+        <v>41.621188480815199</v>
       </c>
       <c r="E9" s="11">
         <f>'Throughtput 10'!E2</f>
-        <v>0</v>
+        <v>118</v>
       </c>
       <c r="F9" s="11">
         <f>'Throughtput 10'!F2</f>
-        <v>0</v>
+        <v>588</v>
       </c>
       <c r="G9" s="11">
         <f>'Throughtput 10'!G2</f>
         <v>0</v>
       </c>
-      <c r="H9" s="11">
+      <c r="H9" s="11" t="str">
         <f>'Throughtput 10'!H2</f>
-        <v>0</v>
+        <v>10.0/sec</v>
       </c>
       <c r="I9" s="29" t="s">
         <v>31</v>
@@ -1408,31 +1601,31 @@
       </c>
       <c r="B10" s="14">
         <f>'Throughtput 15'!B2</f>
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="C10" s="14">
         <f>'Throughtput 15'!C2</f>
-        <v>0</v>
+        <v>230.636</v>
       </c>
       <c r="D10" s="14">
         <f>'Throughtput 15'!D2</f>
-        <v>0</v>
+        <v>57.026486571299998</v>
       </c>
       <c r="E10" s="14">
         <f>'Throughtput 15'!E2</f>
-        <v>0</v>
+        <v>118</v>
       </c>
       <c r="F10" s="14">
         <f>'Throughtput 15'!F2</f>
-        <v>0</v>
+        <v>865</v>
       </c>
       <c r="G10" s="14">
         <f>'Throughtput 15'!G2</f>
         <v>0</v>
       </c>
-      <c r="H10" s="14">
+      <c r="H10" s="14" t="str">
         <f>'Throughtput 15'!H2</f>
-        <v>0</v>
+        <v>14.9/sec</v>
       </c>
       <c r="I10" s="28" t="s">
         <v>32</v>
@@ -1444,31 +1637,31 @@
       </c>
       <c r="B11" s="11">
         <f>'Throughtput 20'!B2</f>
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="C11" s="11">
         <f>'Throughtput 20'!C2</f>
-        <v>0</v>
+        <v>303.19866666666599</v>
       </c>
       <c r="D11" s="11">
         <f>'Throughtput 20'!D2</f>
-        <v>0</v>
+        <v>98.2204214927945</v>
       </c>
       <c r="E11" s="11">
         <f>'Throughtput 20'!E2</f>
-        <v>0</v>
+        <v>135</v>
       </c>
       <c r="F11" s="11">
         <f>'Throughtput 20'!F2</f>
-        <v>0</v>
+        <v>3222</v>
       </c>
       <c r="G11" s="11">
         <f>'Throughtput 20'!G2</f>
         <v>0</v>
       </c>
-      <c r="H11" s="11">
+      <c r="H11" s="11" t="str">
         <f>'Throughtput 20'!H2</f>
-        <v>0</v>
+        <v>19.6/sec</v>
       </c>
       <c r="I11" s="29" t="s">
         <v>33</v>
@@ -1480,31 +1673,31 @@
       </c>
       <c r="B12" s="14">
         <f>'Throughtput 25'!B2</f>
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="C12" s="14">
         <f>'Throughtput 25'!C2</f>
-        <v>0</v>
+        <v>350.56166666666599</v>
       </c>
       <c r="D12" s="14">
         <f>'Throughtput 25'!D2</f>
-        <v>0</v>
+        <v>75.224443260743897</v>
       </c>
       <c r="E12" s="14">
         <f>'Throughtput 25'!E2</f>
-        <v>0</v>
+        <v>124</v>
       </c>
       <c r="F12" s="14">
         <f>'Throughtput 25'!F2</f>
-        <v>0</v>
+        <v>746</v>
       </c>
       <c r="G12" s="14">
         <f>'Throughtput 25'!G2</f>
         <v>0</v>
       </c>
-      <c r="H12" s="14">
+      <c r="H12" s="14" t="str">
         <f>'Throughtput 25'!H2</f>
-        <v>0</v>
+        <v>24.7/sec</v>
       </c>
       <c r="I12" s="28" t="s">
         <v>34</v>
@@ -1516,31 +1709,31 @@
       </c>
       <c r="B13" s="12">
         <f>'Throughtput 30'!B2</f>
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="C13" s="12">
         <f>'Throughtput 30'!C2</f>
-        <v>0</v>
+        <v>536.04999999999995</v>
       </c>
       <c r="D13" s="12">
         <f>'Throughtput 30'!D2</f>
-        <v>0</v>
+        <v>137.00872295830899</v>
       </c>
       <c r="E13" s="12">
         <f>'Throughtput 30'!E2</f>
-        <v>0</v>
+        <v>186</v>
       </c>
       <c r="F13" s="12">
         <f>'Throughtput 30'!F2</f>
-        <v>0</v>
+        <v>3751</v>
       </c>
       <c r="G13" s="12">
         <f>'Throughtput 30'!G2</f>
         <v>0</v>
       </c>
-      <c r="H13" s="12">
+      <c r="H13" s="12" t="str">
         <f>'Throughtput 30'!H2</f>
-        <v>0</v>
+        <v>28.9/sec</v>
       </c>
       <c r="I13" s="30" t="s">
         <v>35</v>
@@ -1557,8 +1750,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1595,16 +1788,34 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
+    <row r="2" spans="1:9" ht="30">
+      <c r="A2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="1">
+        <v>3000</v>
+      </c>
+      <c r="C2" s="2">
+        <v>536.04999999999995</v>
+      </c>
+      <c r="D2" s="2">
+        <v>137.00872295830899</v>
+      </c>
+      <c r="E2" s="1">
+        <v>186</v>
+      </c>
+      <c r="F2" s="1">
+        <v>3751</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" s="1">
+        <v>1763.29</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1616,12 +1827,13 @@
   <dimension ref="A1:I3000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:I2"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="4" width="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="30">
@@ -1653,16 +1865,34 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A2" s="21"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="24"/>
+    <row r="2" spans="1:9" ht="30.75" thickBot="1">
+      <c r="A2" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="22">
+        <v>3000</v>
+      </c>
+      <c r="C2" s="23">
+        <v>585.94966666666596</v>
+      </c>
+      <c r="D2" s="23">
+        <v>105.063275219692</v>
+      </c>
+      <c r="E2" s="22">
+        <v>238</v>
+      </c>
+      <c r="F2" s="22">
+        <v>3544</v>
+      </c>
+      <c r="G2" s="22">
+        <v>0</v>
+      </c>
+      <c r="H2" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2" s="24">
+        <v>1986.73</v>
+      </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1"/>
@@ -28655,7 +28885,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:I2"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -28692,16 +28922,34 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A2" s="21"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="24"/>
+    <row r="2" spans="1:9" ht="30.75" thickBot="1">
+      <c r="A2" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="22">
+        <v>3000</v>
+      </c>
+      <c r="C2" s="23">
+        <v>390.35433333333299</v>
+      </c>
+      <c r="D2" s="23">
+        <v>75.715415303328697</v>
+      </c>
+      <c r="E2" s="22">
+        <v>130</v>
+      </c>
+      <c r="F2" s="22">
+        <v>804</v>
+      </c>
+      <c r="G2" s="22">
+        <v>0</v>
+      </c>
+      <c r="H2" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2" s="24" t="s">
+        <v>39</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -28713,7 +28961,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:I2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -28750,16 +28998,34 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
+    <row r="2" spans="1:9" ht="30">
+      <c r="A2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="1">
+        <v>3000</v>
+      </c>
+      <c r="C2" s="2">
+        <v>197.93199999999999</v>
+      </c>
+      <c r="D2" s="2">
+        <v>63.5281987991685</v>
+      </c>
+      <c r="E2" s="1">
+        <v>121</v>
+      </c>
+      <c r="F2" s="1">
+        <v>737</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I2" s="1">
+        <v>306.05</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -28771,7 +29037,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:I2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -28808,16 +29074,34 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A2" s="21"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="24"/>
+    <row r="2" spans="1:9" ht="30.75" thickBot="1">
+      <c r="A2" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="22">
+        <v>3000</v>
+      </c>
+      <c r="C2" s="23">
+        <v>182.18199999999999</v>
+      </c>
+      <c r="D2" s="23">
+        <v>43.5786057142722</v>
+      </c>
+      <c r="E2" s="22">
+        <v>117</v>
+      </c>
+      <c r="F2" s="22">
+        <v>532</v>
+      </c>
+      <c r="G2" s="22">
+        <v>0</v>
+      </c>
+      <c r="H2" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2" s="24">
+        <v>488.47</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -28829,7 +29113,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:I2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -28867,16 +29151,34 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A2" s="21"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="24"/>
+    <row r="2" spans="1:9" ht="30.75" thickBot="1">
+      <c r="A2" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="22">
+        <v>3000</v>
+      </c>
+      <c r="C2" s="23">
+        <v>190.831666666666</v>
+      </c>
+      <c r="D2" s="23">
+        <v>41.621188480815199</v>
+      </c>
+      <c r="E2" s="22">
+        <v>118</v>
+      </c>
+      <c r="F2" s="22">
+        <v>588</v>
+      </c>
+      <c r="G2" s="22">
+        <v>0</v>
+      </c>
+      <c r="H2" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="I2" s="24">
+        <v>609.80999999999995</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -28888,7 +29190,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A2:I3"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -28925,16 +29227,34 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
+    <row r="2" spans="1:9" ht="30">
+      <c r="A2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="1">
+        <v>3000</v>
+      </c>
+      <c r="C2" s="2">
+        <v>230.636</v>
+      </c>
+      <c r="D2" s="2">
+        <v>57.026486571299998</v>
+      </c>
+      <c r="E2" s="1">
+        <v>118</v>
+      </c>
+      <c r="F2" s="1">
+        <v>865</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2" s="1">
+        <v>910.24</v>
+      </c>
     </row>
     <row r="3" spans="1:9">
       <c r="I3" s="34"/>
@@ -28950,7 +29270,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:I2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -28990,16 +29310,34 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
+    <row r="2" spans="1:9" ht="30">
+      <c r="A2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="1">
+        <v>3000</v>
+      </c>
+      <c r="C2" s="2">
+        <v>303.19866666666599</v>
+      </c>
+      <c r="D2" s="2">
+        <v>98.2204214927945</v>
+      </c>
+      <c r="E2" s="1">
+        <v>135</v>
+      </c>
+      <c r="F2" s="1">
+        <v>3222</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I2" s="1">
+        <v>1194.96</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -29011,7 +29349,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -29048,16 +29386,34 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
+    <row r="2" spans="1:9" ht="30">
+      <c r="A2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="1">
+        <v>3000</v>
+      </c>
+      <c r="C2" s="2">
+        <v>350.56166666666599</v>
+      </c>
+      <c r="D2" s="2">
+        <v>75.224443260743897</v>
+      </c>
+      <c r="E2" s="1">
+        <v>124</v>
+      </c>
+      <c r="F2" s="1">
+        <v>746</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2" s="1">
+        <v>1509.49</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
